--- a/biology/Botanique/Rhodella/Rhodella.xlsx
+++ b/biology/Botanique/Rhodella/Rhodella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodella est un genre d'algues rouges unicellulaires de la famille des Rhodellaceae, auparavant rangé dans la famille des Porphyridiaceae.
 </t>
@@ -511,17 +523,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deux espèces étaient autrefois classées dans le genre Rhodella mais ont été transférées dans d'autres genres :
 Rhodella reticulata est devenue Dixoniella grisea,
 Rhodella cyanea est devenue Neorhodella cyanea,
 et Rhodella maculata est un synonyme taxinomique de Rhodella violacea.
-Selon AlgaeBase                                           (6 août 2013)[1] et World Register of Marine Species                               (6 août 2013)[2] :
+Selon AlgaeBase                                           (6 août 2013) et World Register of Marine Species                               (6 août 2013) :
 Rhodella violacea (Kornmann) Wehrmeyer, 1971
-Selon ITIS      (6 août 2013)[3] :
+Selon ITIS      (6 août 2013) :
 Rhodella maculata L. Evans
-Selon NCBI  (6 août 2013)[4] :
+Selon NCBI  (6 août 2013) :
 Rhodella maculata
 Rhodella reticulata (remarque : cette espèce est devenue Dixoniella grisea)
 Rhodella violacea</t>
